--- a/App_Data/Excel13NET.xlsx
+++ b/App_Data/Excel13NET.xlsx
@@ -416,7 +416,7 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
